--- a/SourceCode/SaleApp/bin/Debug/Reports/Templates/f932_rpt_bao_cao_doanh_thu_ban_hang_theo_ky.xlsx
+++ b/SourceCode/SaleApp/bin/Debug/Reports/Templates/f932_rpt_bao_cao_doanh_thu_ban_hang_theo_ky.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$15</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -33,12 +33,6 @@
     <t>Số tiền</t>
   </si>
   <si>
-    <t>CỬA HÀNG QUẦN ÁO BKINDEX GROUP</t>
-  </si>
-  <si>
-    <t>đ/c: 92B Lý Thường Kiệt, Hoàn Kiếm, Hà Nội</t>
-  </si>
-  <si>
     <t>BÁO CÁO DOANH THU BÁN HÀNG</t>
   </si>
   <si>
@@ -46,18 +40,24 @@
   </si>
   <si>
     <t>Người lập</t>
+  </si>
+  <si>
+    <t>CỬA HÀNG BÁN QUẦN ÁO TRẺ EM KINGRIVER</t>
+  </si>
+  <si>
+    <t>Đ/c: 66 Nguyễn Thị Định - Trung Hòa - Cầu Giấy - Hà Nội</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;Hà Nội, ngày&quot;\ dd\ &quot;tháng&quot;\ mm\ &quot;năm &quot;\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="&quot;Hà Nội, ngày&quot;\ dd\ &quot;tháng&quot;\ mm\ &quot;năm &quot;\ yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,17 +133,17 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -158,6 +158,11 @@
       <color rgb="FF0000CC"/>
     </mruColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -236,6 +241,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,6 +276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,14 +452,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -460,33 +467,33 @@
     <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="31.5">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,18 +507,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <f ca="1">TODAY()</f>
-        <v>40779</v>
+        <v>40785</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -526,24 +533,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SourceCode/SaleApp/bin/Debug/Reports/Templates/f932_rpt_bao_cao_doanh_thu_ban_hang_theo_ky.xlsx
+++ b/SourceCode/SaleApp/bin/Debug/Reports/Templates/f932_rpt_bao_cao_doanh_thu_ban_hang_theo_ky.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -12,9 +12,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$15</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$9</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -51,13 +51,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;Hà Nội, ngày&quot;\ dd\ &quot;tháng&quot;\ mm\ &quot;năm &quot;\ yyyy"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,7 +241,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -276,7 +275,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -452,14 +450,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" customWidth="1"/>
@@ -467,17 +465,17 @@
     <col min="4" max="4" width="20.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4" ht="31.5">
       <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
@@ -485,7 +483,7 @@
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -493,7 +491,7 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -507,17 +505,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
         <f ca="1">TODAY()</f>
-        <v>40785</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="1" t="s">
+        <v>40786</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="D9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -525,7 +523,7 @@
   <mergeCells count="3">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A8:D8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -533,24 +531,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
